--- a/PROYECTO CP/Distribución de los casos para la Auditoria.xlsx
+++ b/PROYECTO CP/Distribución de los casos para la Auditoria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO CP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F14C674-A976-436A-945B-1A827A5D4D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A766748-FE1A-4E52-A850-2A0584BC31DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6F625653-78A0-40B7-9D61-8C0429953592}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6F625653-78A0-40B7-9D61-8C0429953592}"/>
   </bookViews>
   <sheets>
     <sheet name="Entregable E2" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="167">
   <si>
     <t>Epica</t>
   </si>
@@ -529,9 +529,6 @@
     <t xml:space="preserve">desistir ficha tecnica, la automatizacion se queda justo en el ultimo paso (popup de boto desistir). Se realizó varios reintentos mismo resultado. </t>
   </si>
   <si>
-    <t>error</t>
-  </si>
-  <si>
     <t>error al ingresar nombre de nave</t>
   </si>
   <si>
@@ -542,6 +539,17 @@
   </si>
   <si>
     <t>Aqui el errror es de tipo funcional, no encuentra el estado (Zarpe confirmado) pese que sí existe la data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El sistema muestra la pantalla de modificar escala pero luego de unos segundos, muestra el siguiente error en la automatización.:
+And selecciona modificar escala # componentePortuario.steps.ModificarDueStep.seleccionaModificarEscala()
+org.openqa.selenium.NoSuchElementException: Timed out after 2 seconds. Element not found
+</t>
+  </si>
+  <si>
+    <t>Error  al intentar modificar DUE, el sistema de automatización retorna un error:
+And selecciona modificar escala
+org.openqa.selenium.NoSuchElementException: Timed out after 2 seconds. Element not found</t>
   </si>
 </sst>
 </file>
@@ -774,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -881,6 +889,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1929,8 +1940,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="C2:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="B27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2206,7 +2217,7 @@
         <v>31</v>
       </c>
       <c r="M11" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="3:13" ht="108.75" hidden="1" thickBot="1">
@@ -2441,7 +2452,7 @@
         <v>44</v>
       </c>
       <c r="M19" s="37" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="3:13" ht="84.75" hidden="1" thickBot="1">
@@ -2560,7 +2571,7 @@
         <v>44</v>
       </c>
       <c r="M23" s="37" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="3:13" ht="72.75" thickBot="1">
@@ -2592,7 +2603,7 @@
         <v>44</v>
       </c>
       <c r="M24" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="3:13" ht="96.75" hidden="1" thickBot="1">
@@ -2653,7 +2664,7 @@
         <v>44</v>
       </c>
       <c r="M26" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="3:13" ht="60.75" thickBot="1">
@@ -2685,7 +2696,7 @@
         <v>44</v>
       </c>
       <c r="M27" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="3:13" ht="108.75" hidden="1" thickBot="1">
@@ -2832,6 +2843,9 @@
       <c r="K32" s="27" t="s">
         <v>44</v>
       </c>
+      <c r="M32" s="37" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="33" spans="3:11" ht="48.75" hidden="1" thickBot="1">
       <c r="C33" s="5" t="s">
@@ -2910,7 +2924,7 @@
       <c r="H35" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="38" t="s">
         <v>70</v>
       </c>
       <c r="J35" s="10" t="s">
@@ -3741,5 +3755,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PROYECTO CP/Distribución de los casos para la Auditoria.xlsx
+++ b/PROYECTO CP/Distribución de los casos para la Auditoria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO CP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A766748-FE1A-4E52-A850-2A0584BC31DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56EEA9B-3F73-4307-9D27-7B1C2884D566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6F625653-78A0-40B7-9D61-8C0429953592}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6F625653-78A0-40B7-9D61-8C0429953592}"/>
   </bookViews>
   <sheets>
     <sheet name="Entregable E2" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="180">
   <si>
     <t>Epica</t>
   </si>
@@ -550,13 +550,62 @@
     <t>Error  al intentar modificar DUE, el sistema de automatización retorna un error:
 And selecciona modificar escala
 org.openqa.selenium.NoSuchElementException: Timed out after 2 seconds. Element not found</t>
+  </si>
+  <si>
+    <t>La AUTOMATIZACIÓN busca por IMO, pero en caso de que la nave sea de peru y no tenga imo, se interrumpiría la automatización</t>
+  </si>
+  <si>
+    <t>error no completa el flujo, el proceso se rompe al intentar seleccionar "modificar escala" - element not found</t>
+  </si>
+  <si>
+    <t>cp-certi-02@gmail.com / Vuce0424.
+NroDue 0306</t>
+  </si>
+  <si>
+    <t>cp-certi-02@gmail.com/ Vuce0424.
+NroDue 0306</t>
+  </si>
+  <si>
+    <t>certi02
+nombre Nave: PRUEBA05</t>
+  </si>
+  <si>
+    <t>02@GMAIL.COM
+0306</t>
+  </si>
+  <si>
+    <t>cp-certi-02@gmail.com / Vuce0424.
+NAVE: PRUEBA05</t>
+  </si>
+  <si>
+    <t>buscar una data que la declaración se encuentre en estado "por enviar" y que se visualic en el registro DUE</t>
+  </si>
+  <si>
+    <t>buscar data que muestre los botones</t>
+  </si>
+  <si>
+    <t>pendiente revisar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cp-certi-06@gmail.com
+ZARPE CONFIRMADO
+</t>
+  </si>
+  <si>
+    <t>Se pasó el stopeante, ahora se cae por otro inconveniente:
+ And seleccionar Reenvio envio documento
+      org.openqa.selenium.NoSuchElementException: Expected condition failed: waiting for RevertirEnvioDocumentoSelector.opRevertirEnvio to be displayed (tried for 2 second(s) with 100 milliseconds interval)
+Build info: version: '3.141.59', revision: 'e82be7d358', time: '2018-11-14T08:17:03'</t>
+  </si>
+  <si>
+    <t>CONSULTA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,6 +658,14 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -779,10 +836,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -892,8 +950,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -1938,10 +2007,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E586625-7280-4C56-96D5-4CFEF84DF142}">
   <sheetPr filterMode="1"/>
-  <dimension ref="C2:M65"/>
+  <dimension ref="C2:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="C27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1957,8 +2026,8 @@
     <col min="11" max="11" width="8.875" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" ht="15" thickBot="1"/>
-    <row r="3" spans="3:13" ht="39" thickBot="1">
+    <row r="2" spans="3:14" ht="15" thickBot="1"/>
+    <row r="3" spans="3:14" ht="39" thickBot="1">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1985,7 +2054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:13" ht="72.75" hidden="1" thickBot="1">
+    <row r="4" spans="3:14" ht="72.75" hidden="1" thickBot="1">
       <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
@@ -2014,7 +2083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="72.75" hidden="1" thickBot="1">
+    <row r="5" spans="3:14" ht="72.75" hidden="1" thickBot="1">
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
@@ -2043,7 +2112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="48.75" hidden="1" thickBot="1">
+    <row r="6" spans="3:14" ht="48.75" hidden="1" thickBot="1">
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
@@ -2072,7 +2141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:13" ht="60.75" hidden="1" thickBot="1">
+    <row r="7" spans="3:14" ht="60.75" hidden="1" thickBot="1">
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
@@ -2101,7 +2170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="3:13" ht="72.75" hidden="1" thickBot="1">
+    <row r="8" spans="3:14" ht="72.75" hidden="1" thickBot="1">
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
@@ -2130,7 +2199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:13" ht="84.75" hidden="1" thickBot="1">
+    <row r="9" spans="3:14" ht="84.75" hidden="1" thickBot="1">
       <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
@@ -2159,7 +2228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="3:13" ht="84.75" hidden="1" thickBot="1">
+    <row r="10" spans="3:14" ht="84.75" hidden="1" thickBot="1">
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2188,7 +2257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="3:13" ht="84.75" thickBot="1">
+    <row r="11" spans="3:14" ht="115.5" thickBot="1">
       <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
@@ -2204,7 +2273,7 @@
       <c r="G11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="41" t="s">
         <v>25</v>
       </c>
       <c r="I11" s="9" t="s">
@@ -2219,8 +2288,11 @@
       <c r="M11" s="37" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="12" spans="3:13" ht="108.75" hidden="1" thickBot="1">
+      <c r="N11" s="40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" ht="108.75" hidden="1" thickBot="1">
       <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
@@ -2249,7 +2321,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="3:13" ht="60.75" hidden="1" thickBot="1">
+    <row r="13" spans="3:14" ht="60.75" hidden="1" thickBot="1">
       <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
@@ -2278,7 +2350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="3:13" ht="60.75" hidden="1" thickBot="1">
+    <row r="14" spans="3:14" ht="60.75" hidden="1" thickBot="1">
       <c r="C14" s="5" t="s">
         <v>19</v>
       </c>
@@ -2307,7 +2379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="3:13" ht="60.75" hidden="1" thickBot="1">
+    <row r="15" spans="3:14" ht="60.75" hidden="1" thickBot="1">
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
@@ -2336,7 +2408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="3:13" ht="48.75" hidden="1" thickBot="1">
+    <row r="16" spans="3:14" ht="48.75" hidden="1" thickBot="1">
       <c r="C16" s="5" t="s">
         <v>7</v>
       </c>
@@ -2365,7 +2437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="3:13" ht="84.75" hidden="1" thickBot="1">
+    <row r="17" spans="3:15" ht="84.75" hidden="1" thickBot="1">
       <c r="C17" s="5" t="s">
         <v>7</v>
       </c>
@@ -2394,7 +2466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:13" ht="84.75" hidden="1" thickBot="1">
+    <row r="18" spans="3:15" ht="84.75" hidden="1" thickBot="1">
       <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
@@ -2423,7 +2495,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="3:13" ht="84.75" thickBot="1">
+    <row r="19" spans="3:15" ht="100.5" thickBot="1">
       <c r="C19" s="5" t="s">
         <v>7</v>
       </c>
@@ -2454,8 +2526,14 @@
       <c r="M19" s="37" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="20" spans="3:13" ht="84.75" hidden="1" thickBot="1">
+      <c r="N19" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" ht="84.75" hidden="1" thickBot="1">
       <c r="C20" s="5" t="s">
         <v>7</v>
       </c>
@@ -2484,7 +2562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="3:13" ht="84.75" hidden="1" thickBot="1">
+    <row r="21" spans="3:15" ht="84.75" hidden="1" thickBot="1">
       <c r="C21" s="5" t="s">
         <v>7</v>
       </c>
@@ -2513,7 +2591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="3:13" ht="72.75" hidden="1" thickBot="1">
+    <row r="22" spans="3:15" ht="72.75" hidden="1" thickBot="1">
       <c r="C22" s="5" t="s">
         <v>47</v>
       </c>
@@ -2542,7 +2620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="3:13" ht="72.75" thickBot="1">
+    <row r="23" spans="3:15" ht="72.75" thickBot="1">
       <c r="C23" s="5" t="s">
         <v>47</v>
       </c>
@@ -2573,8 +2651,12 @@
       <c r="M23" s="37" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" ht="72.75" thickBot="1">
+      <c r="N23" s="40"/>
+      <c r="O23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" ht="100.5" thickBot="1">
       <c r="C24" s="5" t="s">
         <v>47</v>
       </c>
@@ -2593,7 +2675,7 @@
       <c r="H24" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="38" t="s">
         <v>51</v>
       </c>
       <c r="J24" s="10" t="s">
@@ -2605,8 +2687,11 @@
       <c r="M24" s="37" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" ht="96.75" hidden="1" thickBot="1">
+      <c r="N24" s="40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" ht="96.75" hidden="1" thickBot="1">
       <c r="C25" s="5" t="s">
         <v>7</v>
       </c>
@@ -2635,7 +2720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="3:13" ht="96.75" thickBot="1">
+    <row r="26" spans="3:15" ht="96.75" thickBot="1">
       <c r="C26" s="5" t="s">
         <v>7</v>
       </c>
@@ -2651,7 +2736,7 @@
       <c r="G26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="41" t="s">
         <v>52</v>
       </c>
       <c r="I26" s="9" t="s">
@@ -2664,10 +2749,16 @@
         <v>44</v>
       </c>
       <c r="M26" s="37" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="27" spans="3:13" ht="60.75" thickBot="1">
+        <v>168</v>
+      </c>
+      <c r="N26" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="O26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" ht="100.5" thickBot="1">
       <c r="C27" s="5" t="s">
         <v>19</v>
       </c>
@@ -2698,8 +2789,14 @@
       <c r="M27" s="37" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" ht="108.75" hidden="1" thickBot="1">
+      <c r="N27" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="O27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" ht="108.75" hidden="1" thickBot="1">
       <c r="C28" s="5" t="s">
         <v>19</v>
       </c>
@@ -2728,7 +2825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="3:13" ht="48.75" hidden="1" thickBot="1">
+    <row r="29" spans="3:15" ht="48.75" hidden="1" thickBot="1">
       <c r="C29" s="5" t="s">
         <v>19</v>
       </c>
@@ -2757,7 +2854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="3:13" ht="84.75" hidden="1" thickBot="1">
+    <row r="30" spans="3:15" ht="84.75" hidden="1" thickBot="1">
       <c r="C30" s="12" t="s">
         <v>7</v>
       </c>
@@ -2786,7 +2883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="3:13" ht="108.75" hidden="1" thickBot="1">
+    <row r="31" spans="3:15" ht="108.75" hidden="1" thickBot="1">
       <c r="C31" s="5" t="s">
         <v>7</v>
       </c>
@@ -2815,7 +2912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="3:13" ht="144.75" thickBot="1">
+    <row r="32" spans="3:15" ht="144.75" thickBot="1">
       <c r="C32" s="5" t="s">
         <v>7</v>
       </c>
@@ -2831,10 +2928,10 @@
       <c r="G32" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="38" t="s">
         <v>66</v>
       </c>
       <c r="J32" s="10" t="s">
@@ -2846,8 +2943,11 @@
       <c r="M32" s="37" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="33" spans="3:11" ht="48.75" hidden="1" thickBot="1">
+      <c r="N32" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" ht="48.75" hidden="1" thickBot="1">
       <c r="C33" s="5" t="s">
         <v>7</v>
       </c>
@@ -2876,7 +2976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="3:11" ht="48.75" hidden="1" thickBot="1">
+    <row r="34" spans="3:13" ht="48.75" hidden="1" thickBot="1">
       <c r="C34" s="5" t="s">
         <v>7</v>
       </c>
@@ -2905,7 +3005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="3:11" ht="60.75" thickBot="1">
+    <row r="35" spans="3:13" ht="60.75" thickBot="1">
       <c r="C35" s="5" t="s">
         <v>7</v>
       </c>
@@ -2933,8 +3033,11 @@
       <c r="K35" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="36" spans="3:11" ht="60.75" thickBot="1">
+      <c r="M35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" ht="60.75" thickBot="1">
       <c r="C36" s="5" t="s">
         <v>7</v>
       </c>
@@ -2963,7 +3066,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="3:11" ht="60.75" thickBot="1">
+    <row r="37" spans="3:13" ht="60.75" thickBot="1">
       <c r="C37" s="5" t="s">
         <v>19</v>
       </c>
@@ -2992,7 +3095,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="3:11" ht="60.75" thickBot="1">
+    <row r="38" spans="3:13" ht="60.75" thickBot="1">
       <c r="C38" s="5" t="s">
         <v>19</v>
       </c>
@@ -3021,7 +3124,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="3:11" ht="132.75" thickBot="1">
+    <row r="39" spans="3:13" ht="132.75" thickBot="1">
       <c r="C39" s="5" t="s">
         <v>7</v>
       </c>
@@ -3050,7 +3153,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="3:11" ht="84.75" thickBot="1">
+    <row r="40" spans="3:13" ht="84.75" thickBot="1">
       <c r="C40" s="5" t="s">
         <v>7</v>
       </c>
@@ -3079,7 +3182,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="3:11" ht="96.75" thickBot="1">
+    <row r="41" spans="3:13" ht="96.75" thickBot="1">
       <c r="C41" s="5" t="s">
         <v>7</v>
       </c>
@@ -3108,7 +3211,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="3:11" ht="108.75" thickBot="1">
+    <row r="42" spans="3:13" ht="108.75" thickBot="1">
       <c r="C42" s="5" t="s">
         <v>7</v>
       </c>
@@ -3137,7 +3240,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="3:11" ht="108.75" thickBot="1">
+    <row r="43" spans="3:13" ht="108.75" thickBot="1">
       <c r="C43" s="5" t="s">
         <v>47</v>
       </c>
@@ -3166,7 +3269,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="3:11" ht="108.75" thickBot="1">
+    <row r="44" spans="3:13" ht="108.75" thickBot="1">
       <c r="C44" s="5" t="s">
         <v>47</v>
       </c>
@@ -3195,7 +3298,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="3:11" ht="108.75" thickBot="1">
+    <row r="45" spans="3:13" ht="108.75" thickBot="1">
       <c r="C45" s="5" t="s">
         <v>47</v>
       </c>
@@ -3224,7 +3327,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="3:11" ht="108.75" thickBot="1">
+    <row r="46" spans="3:13" ht="108.75" thickBot="1">
       <c r="C46" s="5" t="s">
         <v>47</v>
       </c>
@@ -3253,7 +3356,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="3:11" ht="108.75" thickBot="1">
+    <row r="47" spans="3:13" ht="108.75" thickBot="1">
       <c r="C47" s="5" t="s">
         <v>47</v>
       </c>
@@ -3282,7 +3385,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="3:11" ht="84.75" thickBot="1">
+    <row r="48" spans="3:13" ht="84.75" thickBot="1">
       <c r="C48" s="5" t="s">
         <v>7</v>
       </c>
@@ -3306,8 +3409,11 @@
       <c r="K48" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" ht="84.75" thickBot="1">
+      <c r="L48" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" ht="84.75" thickBot="1">
       <c r="C49" s="5" t="s">
         <v>7</v>
       </c>
@@ -3331,8 +3437,11 @@
       <c r="K49" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" ht="72.75" thickBot="1">
+      <c r="L49" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" ht="72.75" thickBot="1">
       <c r="C50" s="5" t="s">
         <v>47</v>
       </c>
@@ -3361,7 +3470,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="3:11" ht="96.75" hidden="1" thickBot="1">
+    <row r="51" spans="3:12" ht="96.75" hidden="1" thickBot="1">
       <c r="C51" s="5" t="s">
         <v>19</v>
       </c>
@@ -3390,7 +3499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="3:11" ht="96.75" thickBot="1">
+    <row r="52" spans="3:12" ht="96.75" thickBot="1">
       <c r="C52" s="5" t="s">
         <v>19</v>
       </c>
@@ -3418,8 +3527,11 @@
       <c r="K52" s="27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" ht="120.75" thickBot="1">
+      <c r="L52" s="42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" ht="120.75" thickBot="1">
       <c r="C53" s="5" t="s">
         <v>19</v>
       </c>
@@ -3448,7 +3560,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="3:11" ht="120.75" thickBot="1">
+    <row r="54" spans="3:12" ht="120.75" thickBot="1">
       <c r="C54" s="5" t="s">
         <v>19</v>
       </c>
@@ -3477,7 +3589,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="3:11" ht="120.75" thickBot="1">
+    <row r="55" spans="3:12" ht="120.75" thickBot="1">
       <c r="C55" s="5" t="s">
         <v>19</v>
       </c>
@@ -3506,7 +3618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="3:11" ht="84.75" thickBot="1">
+    <row r="56" spans="3:12" ht="84.75" thickBot="1">
       <c r="C56" s="5" t="s">
         <v>7</v>
       </c>
@@ -3535,7 +3647,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="3:11" ht="72.75" hidden="1" thickBot="1">
+    <row r="57" spans="3:12" ht="72.75" hidden="1" thickBot="1">
       <c r="C57" s="5" t="s">
         <v>7</v>
       </c>
@@ -3564,7 +3676,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="3:11" ht="72.75" thickBot="1">
+    <row r="58" spans="3:12" ht="72.75" thickBot="1">
       <c r="C58" s="5" t="s">
         <v>7</v>
       </c>
@@ -3589,7 +3701,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="3:11" ht="84.75" thickBot="1">
+    <row r="59" spans="3:12" ht="84.75" thickBot="1">
       <c r="C59" s="5" t="s">
         <v>19</v>
       </c>
@@ -3618,7 +3730,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="3:11" ht="84.75" thickBot="1">
+    <row r="60" spans="3:12" ht="84.75" thickBot="1">
       <c r="C60" s="5" t="s">
         <v>19</v>
       </c>
@@ -3647,7 +3759,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="3:11" ht="84.75" thickBot="1">
+    <row r="61" spans="3:12" ht="84.75" thickBot="1">
       <c r="C61" s="5" t="s">
         <v>19</v>
       </c>
@@ -3676,7 +3788,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="3:11" ht="84.75" hidden="1" thickBot="1">
+    <row r="62" spans="3:12" ht="84.75" hidden="1" thickBot="1">
       <c r="C62" s="5" t="s">
         <v>19</v>
       </c>
@@ -3705,7 +3817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="3:11" ht="108.75" hidden="1" thickBot="1">
+    <row r="63" spans="3:12" ht="108.75" hidden="1" thickBot="1">
       <c r="C63" s="5" t="s">
         <v>19</v>
       </c>
@@ -3734,7 +3846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="3:11" ht="15">
+    <row r="64" spans="3:12" ht="15">
       <c r="K64" s="27"/>
     </row>
     <row r="65" spans="11:11" ht="15">
@@ -3754,7 +3866,14 @@
       <formula1>$I$2:$I$6</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="N19" r:id="rId1" xr:uid="{92B579DD-25D7-4856-9DE5-FEED4C4DB059}"/>
+    <hyperlink ref="N24" r:id="rId2" xr:uid="{F5C39735-4D83-45DC-8AE8-F7BDD8B62F92}"/>
+    <hyperlink ref="N26" r:id="rId3" xr:uid="{396FC918-1D37-464E-9927-F3F173F2802C}"/>
+    <hyperlink ref="N11" r:id="rId4" xr:uid="{BC1C346F-87E0-468C-869A-9C4AA84840D0}"/>
+    <hyperlink ref="N27" r:id="rId5" xr:uid="{BFE6689D-6037-41E0-93FC-0175D72F5A7C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0" r:id="rId6"/>
 </worksheet>
 </file>
--- a/PROYECTO CP/Distribución de los casos para la Auditoria.xlsx
+++ b/PROYECTO CP/Distribución de los casos para la Auditoria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO CP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56EEA9B-3F73-4307-9D27-7B1C2884D566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5263FA0-BF6E-43C8-B357-3967C057FB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6F625653-78A0-40B7-9D61-8C0429953592}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6F625653-78A0-40B7-9D61-8C0429953592}"/>
   </bookViews>
   <sheets>
     <sheet name="Entregable E2" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="182">
   <si>
     <t>Epica</t>
   </si>
@@ -574,10 +574,6 @@
 0306</t>
   </si>
   <si>
-    <t>cp-certi-02@gmail.com / Vuce0424.
-NAVE: PRUEBA05</t>
-  </si>
-  <si>
     <t>buscar una data que la declaración se encuentre en estado "por enviar" y que se visualic en el registro DUE</t>
   </si>
   <si>
@@ -599,6 +595,16 @@
   </si>
   <si>
     <t>CONSULTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      | User                  | Password  | NombreNave |
+      | cp-certi-02@gmail.com | Vuce0424. | PRUEBA05	 |</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -668,7 +674,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,6 +714,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,7 +852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -960,6 +972,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2007,10 +2026,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E586625-7280-4C56-96D5-4CFEF84DF142}">
   <sheetPr filterMode="1"/>
-  <dimension ref="C2:O65"/>
+  <dimension ref="C2:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2026,8 +2045,8 @@
     <col min="11" max="11" width="8.875" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" ht="15" thickBot="1"/>
-    <row r="3" spans="3:14" ht="39" thickBot="1">
+    <row r="2" spans="3:15" ht="15" thickBot="1"/>
+    <row r="3" spans="3:15" ht="39" thickBot="1">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2054,7 +2073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:14" ht="72.75" hidden="1" thickBot="1">
+    <row r="4" spans="3:15" ht="72.75" hidden="1" thickBot="1">
       <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
@@ -2083,7 +2102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="3:14" ht="72.75" hidden="1" thickBot="1">
+    <row r="5" spans="3:15" ht="72.75" hidden="1" thickBot="1">
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
@@ -2112,7 +2131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="3:14" ht="48.75" hidden="1" thickBot="1">
+    <row r="6" spans="3:15" ht="48.75" hidden="1" thickBot="1">
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
@@ -2141,7 +2160,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="3:14" ht="60.75" hidden="1" thickBot="1">
+    <row r="7" spans="3:15" ht="60.75" hidden="1" thickBot="1">
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
@@ -2170,7 +2189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="3:14" ht="72.75" hidden="1" thickBot="1">
+    <row r="8" spans="3:15" ht="72.75" hidden="1" thickBot="1">
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
@@ -2199,7 +2218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="3:14" ht="84.75" hidden="1" thickBot="1">
+    <row r="9" spans="3:15" ht="84.75" hidden="1" thickBot="1">
       <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
@@ -2228,7 +2247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="3:14" ht="84.75" hidden="1" thickBot="1">
+    <row r="10" spans="3:15" ht="84.75" hidden="1" thickBot="1">
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2257,7 +2276,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="3:14" ht="115.5" thickBot="1">
+    <row r="11" spans="3:15" ht="201" hidden="1" thickBot="1">
       <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
@@ -2289,10 +2308,13 @@
         <v>161</v>
       </c>
       <c r="N11" s="40" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="3:14" ht="108.75" hidden="1" thickBot="1">
+        <v>179</v>
+      </c>
+      <c r="O11" s="43" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" ht="108.75" hidden="1" thickBot="1">
       <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
@@ -2321,7 +2343,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="3:14" ht="60.75" hidden="1" thickBot="1">
+    <row r="13" spans="3:15" ht="60.75" hidden="1" thickBot="1">
       <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
@@ -2350,7 +2372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="3:14" ht="60.75" hidden="1" thickBot="1">
+    <row r="14" spans="3:15" ht="60.75" hidden="1" thickBot="1">
       <c r="C14" s="5" t="s">
         <v>19</v>
       </c>
@@ -2379,7 +2401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="3:14" ht="60.75" hidden="1" thickBot="1">
+    <row r="15" spans="3:15" ht="60.75" hidden="1" thickBot="1">
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
@@ -2408,7 +2430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="3:14" ht="48.75" hidden="1" thickBot="1">
+    <row r="16" spans="3:15" ht="48.75" hidden="1" thickBot="1">
       <c r="C16" s="5" t="s">
         <v>7</v>
       </c>
@@ -2437,7 +2459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="3:15" ht="84.75" hidden="1" thickBot="1">
+    <row r="17" spans="3:16" ht="84.75" hidden="1" thickBot="1">
       <c r="C17" s="5" t="s">
         <v>7</v>
       </c>
@@ -2466,7 +2488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="3:15" ht="84.75" hidden="1" thickBot="1">
+    <row r="18" spans="3:16" ht="84.75" hidden="1" thickBot="1">
       <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
@@ -2495,7 +2517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="3:15" ht="100.5" thickBot="1">
+    <row r="19" spans="3:16" ht="100.5" hidden="1" thickBot="1">
       <c r="C19" s="5" t="s">
         <v>7</v>
       </c>
@@ -2530,10 +2552,13 @@
         <v>169</v>
       </c>
       <c r="O19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="3:15" ht="84.75" hidden="1" thickBot="1">
+        <v>173</v>
+      </c>
+      <c r="P19" s="43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" ht="84.75" hidden="1" thickBot="1">
       <c r="C20" s="5" t="s">
         <v>7</v>
       </c>
@@ -2562,7 +2587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="3:15" ht="84.75" hidden="1" thickBot="1">
+    <row r="21" spans="3:16" ht="84.75" hidden="1" thickBot="1">
       <c r="C21" s="5" t="s">
         <v>7</v>
       </c>
@@ -2591,7 +2616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="3:15" ht="72.75" hidden="1" thickBot="1">
+    <row r="22" spans="3:16" ht="72.75" hidden="1" thickBot="1">
       <c r="C22" s="5" t="s">
         <v>47</v>
       </c>
@@ -2620,7 +2645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="3:15" ht="72.75" thickBot="1">
+    <row r="23" spans="3:16" ht="72.75" thickBot="1">
       <c r="C23" s="5" t="s">
         <v>47</v>
       </c>
@@ -2636,10 +2661,10 @@
       <c r="G23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="38" t="s">
         <v>50</v>
       </c>
       <c r="J23" s="10" t="s">
@@ -2653,10 +2678,10 @@
       </c>
       <c r="N23" s="40"/>
       <c r="O23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" ht="100.5" thickBot="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" ht="100.5" thickBot="1">
       <c r="C24" s="5" t="s">
         <v>47</v>
       </c>
@@ -2672,10 +2697,10 @@
       <c r="G24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="I24" s="38" t="s">
+      <c r="I24" s="45" t="s">
         <v>51</v>
       </c>
       <c r="J24" s="10" t="s">
@@ -2691,7 +2716,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="3:15" ht="96.75" hidden="1" thickBot="1">
+    <row r="25" spans="3:16" ht="96.75" hidden="1" thickBot="1">
       <c r="C25" s="5" t="s">
         <v>7</v>
       </c>
@@ -2720,7 +2745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="3:15" ht="96.75" thickBot="1">
+    <row r="26" spans="3:16" ht="96.75" thickBot="1">
       <c r="C26" s="5" t="s">
         <v>7</v>
       </c>
@@ -2736,10 +2761,10 @@
       <c r="G26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="41" t="s">
+      <c r="H26" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="45" t="s">
         <v>54</v>
       </c>
       <c r="J26" s="10" t="s">
@@ -2755,10 +2780,10 @@
         <v>172</v>
       </c>
       <c r="O26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" ht="100.5" thickBot="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" ht="100.5" thickBot="1">
       <c r="C27" s="5" t="s">
         <v>19</v>
       </c>
@@ -2790,13 +2815,13 @@
         <v>164</v>
       </c>
       <c r="N27" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="O27" t="s">
         <v>177</v>
       </c>
-      <c r="O27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" ht="108.75" hidden="1" thickBot="1">
+    </row>
+    <row r="28" spans="3:16" ht="108.75" hidden="1" thickBot="1">
       <c r="C28" s="5" t="s">
         <v>19</v>
       </c>
@@ -2825,7 +2850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="3:15" ht="48.75" hidden="1" thickBot="1">
+    <row r="29" spans="3:16" ht="48.75" hidden="1" thickBot="1">
       <c r="C29" s="5" t="s">
         <v>19</v>
       </c>
@@ -2854,7 +2879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="3:15" ht="84.75" hidden="1" thickBot="1">
+    <row r="30" spans="3:16" ht="84.75" hidden="1" thickBot="1">
       <c r="C30" s="12" t="s">
         <v>7</v>
       </c>
@@ -2883,7 +2908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="3:15" ht="108.75" hidden="1" thickBot="1">
+    <row r="31" spans="3:16" ht="108.75" hidden="1" thickBot="1">
       <c r="C31" s="5" t="s">
         <v>7</v>
       </c>
@@ -2912,7 +2937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="3:15" ht="144.75" thickBot="1">
+    <row r="32" spans="3:16" ht="144.75" thickBot="1">
       <c r="C32" s="5" t="s">
         <v>7</v>
       </c>
@@ -3410,7 +3435,7 @@
         <v>44</v>
       </c>
       <c r="L48" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="3:12" ht="84.75" thickBot="1">
@@ -3438,7 +3463,7 @@
         <v>44</v>
       </c>
       <c r="L49" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" spans="3:12" ht="72.75" thickBot="1">
@@ -3528,7 +3553,7 @@
         <v>44</v>
       </c>
       <c r="L52" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="3:12" ht="120.75" thickBot="1">
@@ -3870,7 +3895,7 @@
     <hyperlink ref="N19" r:id="rId1" xr:uid="{92B579DD-25D7-4856-9DE5-FEED4C4DB059}"/>
     <hyperlink ref="N24" r:id="rId2" xr:uid="{F5C39735-4D83-45DC-8AE8-F7BDD8B62F92}"/>
     <hyperlink ref="N26" r:id="rId3" xr:uid="{396FC918-1D37-464E-9927-F3F173F2802C}"/>
-    <hyperlink ref="N11" r:id="rId4" xr:uid="{BC1C346F-87E0-468C-869A-9C4AA84840D0}"/>
+    <hyperlink ref="N11" r:id="rId4" display="cp-certi-02@gmail.com / Vuce0424._x000a_NAVE: PRUEBA05" xr:uid="{BC1C346F-87E0-468C-869A-9C4AA84840D0}"/>
     <hyperlink ref="N27" r:id="rId5" xr:uid="{BFE6689D-6037-41E0-93FC-0175D72F5A7C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
